--- a/biology/Médecine/Être_là/Être_là.xlsx
+++ b/biology/Médecine/Être_là/Être_là.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%8Atre_l%C3%A0</t>
+          <t>Être_là</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Être là est un documentaire français réalisé par Régis Sauder, sorti en 2012.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%8Atre_l%C3%A0</t>
+          <t>Être_là</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le travail des soignantes de l'équipe du service psychiatrique avec les détenus de la prison des Baumettes à Marseille.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%8Atre_l%C3%A0</t>
+          <t>Être_là</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Être là
 Réalisation :  Régis Sauder
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%8Atre_l%C3%A0</t>
+          <t>Être_là</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,11 +602,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival Traces de Vies 2012 : Mention spéciale - Prix Regard social
-Étoile de la Scam 2014
-Sélections
-FIDMarseille 2012 (Sélection Officielle - Compétition française)
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Festival Traces de Vies 2012 : Mention spéciale - Prix Regard social
+Étoile de la Scam 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Être_là</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%8Atre_l%C3%A0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>FIDMarseille 2012 (Sélection Officielle - Compétition française)
 États Généraux de Lussas
 Rencontres Internationales du Documentaire de Montréal 2012
 Festival International du Film Francophone de Namur 2012
